--- a/maven/data/TestData1.xlsx
+++ b/maven/data/TestData1.xlsx
@@ -12,7 +12,7 @@
     <sheet name="Definition" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Data!$A$1:$B$31</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Data!$A$1:$B$30</definedName>
     <definedName name="checkbox">#REF!</definedName>
     <definedName name="DCAlevel">#REF!</definedName>
     <definedName name="DSG_tabletype">#REF!</definedName>
@@ -38,10 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
-  <si>
-    <t xml:space="preserve">TEST SCENARIO IDENTIFICATION </t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
   <si>
     <t>Login</t>
   </si>
@@ -55,15 +52,6 @@
     <t>demo123</t>
   </si>
   <si>
-    <t>New Post</t>
-  </si>
-  <si>
-    <t>Test Title</t>
-  </si>
-  <si>
-    <t>Create simple post in admin page</t>
-  </si>
-  <si>
     <t>UserName</t>
   </si>
   <si>
@@ -73,7 +61,31 @@
     <t>Predix</t>
   </si>
   <si>
-    <t>VALUES</t>
+    <t>Parameters</t>
+  </si>
+  <si>
+    <t>Value 1</t>
+  </si>
+  <si>
+    <t>Value 2</t>
+  </si>
+  <si>
+    <t>Value 3</t>
+  </si>
+  <si>
+    <t>Value 4</t>
+  </si>
+  <si>
+    <t>Value 5</t>
+  </si>
+  <si>
+    <t>Value 6</t>
+  </si>
+  <si>
+    <t>Search</t>
+  </si>
+  <si>
+    <t>admin2</t>
   </si>
 </sst>
 </file>
@@ -165,7 +177,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -182,27 +194,24 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="38" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -215,8 +224,17 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -539,7 +557,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B26"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -550,138 +568,274 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36.85546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="32.85546875" style="5" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="19.5703125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="17.42578125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="13.140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="14" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A1" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A2" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" s="4" customFormat="1" ht="14.25" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+    </row>
+    <row r="3" spans="1:7" s="4" customFormat="1" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+    </row>
+    <row r="4" spans="1:7" s="4" customFormat="1" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
+    </row>
+    <row r="5" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A5" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="14"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+    </row>
+    <row r="6" spans="1:7" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="17" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A3" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="15"/>
-    </row>
-    <row r="4" spans="1:2" s="4" customFormat="1" ht="14.25" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" s="4" customFormat="1" ht="14.25" x14ac:dyDescent="0.25">
-      <c r="A5" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A6" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="15"/>
-    </row>
-    <row r="7" spans="1:2" ht="14.25" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" s="4" customFormat="1" ht="14.25" x14ac:dyDescent="0.25">
-      <c r="A8" s="10"/>
-      <c r="B8" s="10"/>
-    </row>
-    <row r="9" spans="1:2" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="C6" s="17"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
+    </row>
+    <row r="7" spans="1:7" s="4" customFormat="1" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="A7" s="9"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
+    </row>
+    <row r="8" spans="1:7" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="A8" s="6"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="17"/>
+    </row>
+    <row r="9" spans="1:7" s="2" customFormat="1" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
-      <c r="B9" s="12"/>
-    </row>
-    <row r="10" spans="1:2" s="2" customFormat="1" ht="14.25" x14ac:dyDescent="0.25">
-      <c r="A10" s="8"/>
-      <c r="B10" s="11"/>
-    </row>
-    <row r="11" spans="1:2" s="2" customFormat="1" ht="14.25" x14ac:dyDescent="0.25">
-      <c r="A11" s="8"/>
-      <c r="B11" s="11"/>
-    </row>
-    <row r="12" spans="1:2" s="2" customFormat="1" ht="14.25" x14ac:dyDescent="0.25">
-      <c r="A12" s="8"/>
-      <c r="B12" s="11"/>
-    </row>
-    <row r="13" spans="1:2" s="2" customFormat="1" ht="14.25" x14ac:dyDescent="0.25">
-      <c r="A13" s="8"/>
-      <c r="B13" s="11"/>
-    </row>
-    <row r="14" spans="1:2" s="3" customFormat="1" ht="14.25" x14ac:dyDescent="0.25">
-      <c r="A14" s="13"/>
-      <c r="B14" s="11"/>
-    </row>
-    <row r="15" spans="1:2" s="3" customFormat="1" ht="14.25" x14ac:dyDescent="0.25">
-      <c r="A15" s="13"/>
-      <c r="B15" s="11"/>
-    </row>
-    <row r="16" spans="1:2" s="3" customFormat="1" ht="14.25" x14ac:dyDescent="0.25">
-      <c r="A16" s="13"/>
-      <c r="B16" s="11"/>
-    </row>
-    <row r="17" spans="1:2" s="3" customFormat="1" ht="14.25" x14ac:dyDescent="0.25">
-      <c r="A17" s="13"/>
-      <c r="B17" s="11"/>
-    </row>
-    <row r="18" spans="1:2" s="2" customFormat="1" ht="14.25" x14ac:dyDescent="0.25">
-      <c r="A18" s="8"/>
-      <c r="B18" s="11"/>
-    </row>
-    <row r="19" spans="1:2" s="2" customFormat="1" ht="14.25" x14ac:dyDescent="0.25">
-      <c r="A19" s="8"/>
-      <c r="B19" s="11"/>
-    </row>
-    <row r="20" spans="1:2" s="2" customFormat="1" ht="14.25" x14ac:dyDescent="0.25">
-      <c r="A20" s="8"/>
-      <c r="B20" s="11"/>
-    </row>
-    <row r="21" spans="1:2" s="2" customFormat="1" ht="14.25" x14ac:dyDescent="0.25">
-      <c r="A21" s="8"/>
-      <c r="B21" s="11"/>
-    </row>
-    <row r="22" spans="1:2" s="9" customFormat="1" ht="14.25" x14ac:dyDescent="0.25">
-      <c r="A22" s="8"/>
-      <c r="B22" s="11"/>
-    </row>
-    <row r="23" spans="1:2" s="9" customFormat="1" ht="14.25" x14ac:dyDescent="0.25">
-      <c r="A23" s="8"/>
-      <c r="B23" s="11"/>
-    </row>
-    <row r="24" spans="1:2" s="2" customFormat="1" ht="14.25" x14ac:dyDescent="0.25">
-      <c r="A24" s="8"/>
-      <c r="B24" s="11"/>
-    </row>
-    <row r="25" spans="1:2" s="2" customFormat="1" ht="14.25" x14ac:dyDescent="0.25">
-      <c r="A25" s="8"/>
-      <c r="B25" s="11"/>
-    </row>
-    <row r="26" spans="1:2" s="2" customFormat="1" ht="14.25" x14ac:dyDescent="0.25">
-      <c r="A26" s="8"/>
-      <c r="B26" s="11"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
+    </row>
+    <row r="10" spans="1:7" s="2" customFormat="1" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="A10" s="7"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18"/>
+    </row>
+    <row r="11" spans="1:7" s="2" customFormat="1" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="A11" s="7"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
+    </row>
+    <row r="12" spans="1:7" s="2" customFormat="1" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="A12" s="7"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="18"/>
+    </row>
+    <row r="13" spans="1:7" s="3" customFormat="1" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="A13" s="12"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="19"/>
+    </row>
+    <row r="14" spans="1:7" s="3" customFormat="1" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="A14" s="12"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="19"/>
+    </row>
+    <row r="15" spans="1:7" s="3" customFormat="1" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="A15" s="12"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="19"/>
+    </row>
+    <row r="16" spans="1:7" s="3" customFormat="1" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="A16" s="12"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="19"/>
+    </row>
+    <row r="17" spans="1:7" s="2" customFormat="1" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="A17" s="7"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="18"/>
+    </row>
+    <row r="18" spans="1:7" s="2" customFormat="1" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="A18" s="7"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="18"/>
+    </row>
+    <row r="19" spans="1:7" s="2" customFormat="1" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="A19" s="7"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="18"/>
+    </row>
+    <row r="20" spans="1:7" s="2" customFormat="1" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="A20" s="7"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="18"/>
+    </row>
+    <row r="21" spans="1:7" s="8" customFormat="1" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="A21" s="7"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="18"/>
+    </row>
+    <row r="22" spans="1:7" s="8" customFormat="1" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="A22" s="7"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="18"/>
+    </row>
+    <row r="23" spans="1:7" s="2" customFormat="1" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="A23" s="7"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="18"/>
+    </row>
+    <row r="24" spans="1:7" s="2" customFormat="1" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="A24" s="7"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="18"/>
+      <c r="G24" s="18"/>
+    </row>
+    <row r="25" spans="1:7" s="2" customFormat="1" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="A25" s="7"/>
+      <c r="B25" s="10"/>
+      <c r="C25" s="18"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="18"/>
+      <c r="G25" s="18"/>
     </row>
   </sheetData>
   <dataConsolidate/>

--- a/maven/data/TestData1.xlsx
+++ b/maven/data/TestData1.xlsx
@@ -12,7 +12,7 @@
     <sheet name="Definition" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Data!$A$1:$B$30</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Data!$A$1:$B$32</definedName>
     <definedName name="checkbox">#REF!</definedName>
     <definedName name="DCAlevel">#REF!</definedName>
     <definedName name="DSG_tabletype">#REF!</definedName>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
   <si>
     <t>Login</t>
   </si>
@@ -86,6 +86,21 @@
   </si>
   <si>
     <t>admin2</t>
+  </si>
+  <si>
+    <t>[MCQUEEN,BARRYMORE,ZELLWEGER,FAWCETT,TEMPLE]</t>
+  </si>
+  <si>
+    <t>Sql check</t>
+  </si>
+  <si>
+    <t>query_actor</t>
+  </si>
+  <si>
+    <t>select last_name from actor where first_name in ('julia','thora');</t>
+  </si>
+  <si>
+    <t>exp_query_actor</t>
   </si>
 </sst>
 </file>
@@ -95,7 +110,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0;[Red]\-&quot;$&quot;#,##0"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -126,6 +141,11 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -177,7 +197,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -235,6 +255,12 @@
     </xf>
     <xf numFmtId="38" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -557,13 +583,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G25"/>
+  <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B6" sqref="B6"/>
+      <selection pane="bottomRight" activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -666,41 +692,51 @@
       <c r="F6" s="17"/>
       <c r="G6" s="17"/>
     </row>
-    <row r="7" spans="1:7" s="4" customFormat="1" ht="14.25" x14ac:dyDescent="0.25">
-      <c r="A7" s="9"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
-    </row>
-    <row r="8" spans="1:7" ht="14.25" x14ac:dyDescent="0.25">
-      <c r="A8" s="6"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="17"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17"/>
-    </row>
-    <row r="9" spans="1:7" s="2" customFormat="1" ht="14.25" x14ac:dyDescent="0.25">
-      <c r="A9" s="7"/>
-      <c r="B9" s="10"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18"/>
-    </row>
-    <row r="10" spans="1:7" s="2" customFormat="1" ht="14.25" x14ac:dyDescent="0.25">
-      <c r="A10" s="7"/>
-      <c r="B10" s="10"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="18"/>
+    <row r="7" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A7" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="14"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+    </row>
+    <row r="8" spans="1:7" ht="57" x14ac:dyDescent="0.25">
+      <c r="A8" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="20"/>
+    </row>
+    <row r="9" spans="1:7" s="4" customFormat="1" ht="57" x14ac:dyDescent="0.25">
+      <c r="A9" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="16"/>
+    </row>
+    <row r="10" spans="1:7" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="A10" s="6"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17"/>
     </row>
     <row r="11" spans="1:7" s="2" customFormat="1" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
@@ -720,23 +756,23 @@
       <c r="F12" s="18"/>
       <c r="G12" s="18"/>
     </row>
-    <row r="13" spans="1:7" s="3" customFormat="1" ht="14.25" x14ac:dyDescent="0.25">
-      <c r="A13" s="12"/>
+    <row r="13" spans="1:7" s="2" customFormat="1" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="A13" s="7"/>
       <c r="B13" s="10"/>
-      <c r="C13" s="19"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="19"/>
-      <c r="G13" s="19"/>
-    </row>
-    <row r="14" spans="1:7" s="3" customFormat="1" ht="14.25" x14ac:dyDescent="0.25">
-      <c r="A14" s="12"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18"/>
+    </row>
+    <row r="14" spans="1:7" s="2" customFormat="1" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="A14" s="7"/>
       <c r="B14" s="10"/>
-      <c r="C14" s="19"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="19"/>
-      <c r="G14" s="19"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="18"/>
     </row>
     <row r="15" spans="1:7" s="3" customFormat="1" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A15" s="12"/>
@@ -756,23 +792,23 @@
       <c r="F16" s="19"/>
       <c r="G16" s="19"/>
     </row>
-    <row r="17" spans="1:7" s="2" customFormat="1" ht="14.25" x14ac:dyDescent="0.25">
-      <c r="A17" s="7"/>
+    <row r="17" spans="1:7" s="3" customFormat="1" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="A17" s="12"/>
       <c r="B17" s="10"/>
-      <c r="C17" s="18"/>
-      <c r="D17" s="18"/>
-      <c r="E17" s="18"/>
-      <c r="F17" s="18"/>
-      <c r="G17" s="18"/>
-    </row>
-    <row r="18" spans="1:7" s="2" customFormat="1" ht="14.25" x14ac:dyDescent="0.25">
-      <c r="A18" s="7"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="19"/>
+    </row>
+    <row r="18" spans="1:7" s="3" customFormat="1" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="A18" s="12"/>
       <c r="B18" s="10"/>
-      <c r="C18" s="18"/>
-      <c r="D18" s="18"/>
-      <c r="E18" s="18"/>
-      <c r="F18" s="18"/>
-      <c r="G18" s="18"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="19"/>
     </row>
     <row r="19" spans="1:7" s="2" customFormat="1" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A19" s="7"/>
@@ -792,7 +828,7 @@
       <c r="F20" s="18"/>
       <c r="G20" s="18"/>
     </row>
-    <row r="21" spans="1:7" s="8" customFormat="1" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" s="2" customFormat="1" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A21" s="7"/>
       <c r="B21" s="10"/>
       <c r="C21" s="18"/>
@@ -801,7 +837,7 @@
       <c r="F21" s="18"/>
       <c r="G21" s="18"/>
     </row>
-    <row r="22" spans="1:7" s="8" customFormat="1" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" s="2" customFormat="1" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A22" s="7"/>
       <c r="B22" s="10"/>
       <c r="C22" s="18"/>
@@ -810,7 +846,7 @@
       <c r="F22" s="18"/>
       <c r="G22" s="18"/>
     </row>
-    <row r="23" spans="1:7" s="2" customFormat="1" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" s="8" customFormat="1" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A23" s="7"/>
       <c r="B23" s="10"/>
       <c r="C23" s="18"/>
@@ -819,7 +855,7 @@
       <c r="F23" s="18"/>
       <c r="G23" s="18"/>
     </row>
-    <row r="24" spans="1:7" s="2" customFormat="1" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" s="8" customFormat="1" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A24" s="7"/>
       <c r="B24" s="10"/>
       <c r="C24" s="18"/>
@@ -836,6 +872,24 @@
       <c r="E25" s="18"/>
       <c r="F25" s="18"/>
       <c r="G25" s="18"/>
+    </row>
+    <row r="26" spans="1:7" s="2" customFormat="1" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="A26" s="7"/>
+      <c r="B26" s="10"/>
+      <c r="C26" s="18"/>
+      <c r="D26" s="18"/>
+      <c r="E26" s="18"/>
+      <c r="F26" s="18"/>
+      <c r="G26" s="18"/>
+    </row>
+    <row r="27" spans="1:7" s="2" customFormat="1" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="A27" s="7"/>
+      <c r="B27" s="10"/>
+      <c r="C27" s="18"/>
+      <c r="D27" s="18"/>
+      <c r="E27" s="18"/>
+      <c r="F27" s="18"/>
+      <c r="G27" s="18"/>
     </row>
   </sheetData>
   <dataConsolidate/>

--- a/maven/data/TestData1.xlsx
+++ b/maven/data/TestData1.xlsx
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
   <si>
     <t>Login</t>
   </si>
@@ -88,9 +88,6 @@
     <t>admin2</t>
   </si>
   <si>
-    <t>[MCQUEEN,BARRYMORE,ZELLWEGER,FAWCETT,TEMPLE]</t>
-  </si>
-  <si>
     <t>Sql check</t>
   </si>
   <si>
@@ -101,6 +98,18 @@
   </si>
   <si>
     <t>exp_query_actor</t>
+  </si>
+  <si>
+    <t>MCQUEEN</t>
+  </si>
+  <si>
+    <t>Need to think for implementation</t>
+  </si>
+  <si>
+    <t>1. If user wanna run with more data/value</t>
+  </si>
+  <si>
+    <t>2. If user wanna query more columns on 1 common query</t>
   </si>
 </sst>
 </file>
@@ -583,13 +592,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G27"/>
+  <dimension ref="A1:I27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A10" sqref="A10"/>
+      <selection pane="bottomRight" activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -601,10 +610,12 @@
     <col min="5" max="5" width="12.85546875" style="1" customWidth="1"/>
     <col min="6" max="6" width="13.140625" style="1" customWidth="1"/>
     <col min="7" max="7" width="14" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="1"/>
+    <col min="8" max="8" width="20.85546875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="59.140625" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>7</v>
       </c>
@@ -626,8 +637,11 @@
       <c r="G1" s="13" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="I1" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>0</v>
       </c>
@@ -637,8 +651,11 @@
       <c r="E2" s="14"/>
       <c r="F2" s="14"/>
       <c r="G2" s="14"/>
-    </row>
-    <row r="3" spans="1:7" s="4" customFormat="1" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="I2" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" s="4" customFormat="1" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>4</v>
       </c>
@@ -652,8 +669,11 @@
       <c r="E3" s="16"/>
       <c r="F3" s="16"/>
       <c r="G3" s="16"/>
-    </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="I3" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" s="4" customFormat="1" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
         <v>1</v>
       </c>
@@ -668,7 +688,7 @@
       <c r="F4" s="16"/>
       <c r="G4" s="16"/>
     </row>
-    <row r="5" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
         <v>14</v>
       </c>
@@ -679,7 +699,7 @@
       <c r="F5" s="14"/>
       <c r="G5" s="14"/>
     </row>
-    <row r="6" spans="1:7" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>5</v>
       </c>
@@ -692,9 +712,9 @@
       <c r="F6" s="17"/>
       <c r="G6" s="17"/>
     </row>
-    <row r="7" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B7" s="14"/>
       <c r="C7" s="14"/>
@@ -703,12 +723,12 @@
       <c r="F7" s="14"/>
       <c r="G7" s="14"/>
     </row>
-    <row r="8" spans="1:7" ht="57" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="57" x14ac:dyDescent="0.25">
       <c r="A8" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="21" t="s">
         <v>18</v>
-      </c>
-      <c r="B8" s="21" t="s">
-        <v>19</v>
       </c>
       <c r="C8" s="20"/>
       <c r="D8" s="20"/>
@@ -716,12 +736,12 @@
       <c r="F8" s="20"/>
       <c r="G8" s="20"/>
     </row>
-    <row r="9" spans="1:7" s="4" customFormat="1" ht="57" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" s="4" customFormat="1" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="11" t="s">
         <v>20</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>16</v>
       </c>
       <c r="C9" s="16"/>
       <c r="D9" s="16"/>
@@ -729,7 +749,7 @@
       <c r="F9" s="16"/>
       <c r="G9" s="16"/>
     </row>
-    <row r="10" spans="1:7" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A10" s="6"/>
       <c r="B10" s="11"/>
       <c r="C10" s="17"/>
@@ -738,7 +758,7 @@
       <c r="F10" s="17"/>
       <c r="G10" s="17"/>
     </row>
-    <row r="11" spans="1:7" s="2" customFormat="1" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" s="2" customFormat="1" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
       <c r="B11" s="10"/>
       <c r="C11" s="18"/>
@@ -747,7 +767,7 @@
       <c r="F11" s="18"/>
       <c r="G11" s="18"/>
     </row>
-    <row r="12" spans="1:7" s="2" customFormat="1" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" s="2" customFormat="1" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
       <c r="B12" s="10"/>
       <c r="C12" s="18"/>
@@ -756,7 +776,7 @@
       <c r="F12" s="18"/>
       <c r="G12" s="18"/>
     </row>
-    <row r="13" spans="1:7" s="2" customFormat="1" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" s="2" customFormat="1" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A13" s="7"/>
       <c r="B13" s="10"/>
       <c r="C13" s="18"/>
@@ -765,7 +785,7 @@
       <c r="F13" s="18"/>
       <c r="G13" s="18"/>
     </row>
-    <row r="14" spans="1:7" s="2" customFormat="1" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" s="2" customFormat="1" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A14" s="7"/>
       <c r="B14" s="10"/>
       <c r="C14" s="18"/>
@@ -774,7 +794,7 @@
       <c r="F14" s="18"/>
       <c r="G14" s="18"/>
     </row>
-    <row r="15" spans="1:7" s="3" customFormat="1" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" s="3" customFormat="1" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A15" s="12"/>
       <c r="B15" s="10"/>
       <c r="C15" s="19"/>
@@ -783,7 +803,7 @@
       <c r="F15" s="19"/>
       <c r="G15" s="19"/>
     </row>
-    <row r="16" spans="1:7" s="3" customFormat="1" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" s="3" customFormat="1" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A16" s="12"/>
       <c r="B16" s="10"/>
       <c r="C16" s="19"/>
